--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Loeb/Jacques_Loeb.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Loeb/Jacques_Loeb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques (né Isaac) Loeb est un biologiste et physiologiste américain d’origine allemande, né le 7 avril 1859 à Mayen (province de Rhénanie) et mort le 11 février 1924 à Hamilton aux Bermudes.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Loeb s’oriente d’abord vers la philosophie après la lecture d'Arthur Schopenhauer (1788-1860)[1]. Il fait ses études dans les universités de Berlin, Munich et de Strasbourg et obtient son titre de docteur en médecine en 1884. Il poursuit ses études dans les universités de Strasbourg et de Berlin. Il devient en 1886 assistant à l’institut de physiologie à l’université de Wurtzbourg où il reste jusqu’en 1888. Il part occuper un emploi similaire à Strasbourg. Durant les congés, il poursuit ses recherches biologiques à Kiel en 1888 et à Naples en 1889 et en 1890.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Loeb s’oriente d’abord vers la philosophie après la lecture d'Arthur Schopenhauer (1788-1860). Il fait ses études dans les universités de Berlin, Munich et de Strasbourg et obtient son titre de docteur en médecine en 1884. Il poursuit ses études dans les universités de Strasbourg et de Berlin. Il devient en 1886 assistant à l’institut de physiologie à l’université de Wurtzbourg où il reste jusqu’en 1888. Il part occuper un emploi similaire à Strasbourg. Durant les congés, il poursuit ses recherches biologiques à Kiel en 1888 et à Naples en 1889 et en 1890.
 En 1892, Loeb est appelé par l’université de Chicago comme professeur assistant en physiologie et en biologie expérimentale. Il devient professeur associé en 1895 et professeur en physiologie en 1899. En 1902, l’université de Californie lui offre un poste similaire. En 1910, Loeb part à l’Institut Rockefeller pour la recherche médicale de New York (aujourd’hui université Rockefeller), où il prend la direction d’un département créé spécialement pour lui. Il reste dans cet institut jusqu’à sa mort.
 Durant ces années, Loeb passe ses étés au Laboratoire de biologie marine (MBL) de Woods Hole dans le Massachusetts où il fait de nombreuses expériences sur les invertébrés marins. C’est là qu’il réalise ses expériences sur la parthénogenèse artificielle. Loeb est capable de provoquer un début de développement embryonnaire d’œufs d’oursins sans présence de sperme. Ceci est obtenu par de légères modifications chimiques de l’eau où les œufs sont maintenus.
-Loeb devient l’un des scientifiques les plus importants de l’Amérique dont parlent souvent les journaux et les magazines. Il est le modèle pour le personnage de Max Gottlieb de Sinclair Lewis (1885-1951) dans son livre, qui recevra le prix Pulitzer, Arrowsmith. C’est une œuvre importante qui idéalise et idolâtre la science pure[2]. Le nom de Loeb est plusieurs fois cité pour le prix Nobel mais il ne l’obtient pas.
+Loeb devient l’un des scientifiques les plus importants de l’Amérique dont parlent souvent les journaux et les magazines. Il est le modèle pour le personnage de Max Gottlieb de Sinclair Lewis (1885-1951) dans son livre, qui recevra le prix Pulitzer, Arrowsmith. C’est une œuvre importante qui idéalise et idolâtre la science pure. Le nom de Loeb est plusieurs fois cité pour le prix Nobel mais il ne l’obtient pas.
 Loeb étudie plusieurs domaines :
 Les tropismes des animaux et ses relations avec instinct
 L’hétéromorphose, le mécanisme qui aboutit au remplacement d’un organe par un organe différent.
@@ -550,7 +564,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Der Heliotropismus der Thiere und seine Uebereinstimmung mit dem Heliotropismus der Pflanzen, Georg Hertz (Wurtzbourg), 1890, Texte intégral.
 (de) Untersuchungen zur physiologischen Morphologie der Thiere, Georg Hertz (Wurtzbourg), 1891–1892. 2 vol.:
